--- a/variable_summary.xlsx
+++ b/variable_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgorman/research/phd/chapter-6-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54034175-9132-224A-961D-6578AB7E5C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94D393-B6F4-A041-80EC-02004FC49A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable_summary" sheetId="1" r:id="rId1"/>
@@ -411,14 +411,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Bell MT"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Bell MT"/>
       <family val="1"/>
@@ -605,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -805,6 +805,26 @@
       <right/>
       <top style="medium">
         <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
         <color theme="2" tint="-0.499984740745262"/>
@@ -856,93 +876,102 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,91 +1329,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28" style="28" customWidth="1"/>
-    <col min="8" max="8" width="13" style="28" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:9" ht="25" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:9" ht="25" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="26" t="s">
+    <row r="4" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -1393,22 +1422,22 @@
       <c r="H4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="26" t="s">
+    <row r="5" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -1417,427 +1446,430 @@
       <c r="H5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="27" t="s">
+    <row r="6" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="2:9" ht="51" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="26" t="s">
+    <row r="12" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="26" t="s">
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="26" t="s">
+    <row r="14" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="16" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="27" t="s">
+    <row r="15" spans="2:9" ht="51" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="26" t="s">
+    <row r="17" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="29" t="s">
         <v>79</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+    <row r="18" spans="2:9" ht="51" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="27" t="s">
+    <row r="20" spans="2:9" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="27" t="s">
+    <row r="22" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="24" t="s">
         <v>78</v>
       </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/variable_summary.xlsx
+++ b/variable_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgorman/research/phd/chapter-6-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94D393-B6F4-A041-80EC-02004FC49A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2194B-A810-7341-8CD2-823745749172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
   <si>
     <t>Category</t>
   </si>
@@ -40,213 +40,48 @@
     <t>Grouping Variables</t>
   </si>
   <si>
-    <t>id_form</t>
-  </si>
-  <si>
     <t>categorical</t>
   </si>
   <si>
-    <t>gdlcode</t>
-  </si>
-  <si>
-    <t>iso_country_code</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
-    <t>hh_size_mae</t>
-  </si>
-  <si>
     <t>continuous</t>
   </si>
   <si>
-    <t>education_cleaned</t>
-  </si>
-  <si>
     <t>Resource Endowment</t>
   </si>
   <si>
-    <t>livestock_tlu</t>
-  </si>
-  <si>
-    <t>land_cultivated_ha</t>
-  </si>
-  <si>
     <t>Production Orientation</t>
   </si>
   <si>
-    <t>livestock_orientation</t>
-  </si>
-  <si>
     <t>proportion</t>
   </si>
   <si>
-    <t>crop_orientation</t>
-  </si>
-  <si>
-    <t>off_farm_orientation</t>
-  </si>
-  <si>
-    <t>market_orientation</t>
-  </si>
-  <si>
-    <t>weighted_income_diversity</t>
-  </si>
-  <si>
     <t>Village Variables</t>
   </si>
   <si>
-    <t>adjusted_length_growing_period</t>
-  </si>
-  <si>
-    <t>min_travel_time</t>
-  </si>
-  <si>
-    <t>aez_class_cleaned</t>
-  </si>
-  <si>
-    <t>County Descriptors</t>
-  </si>
-  <si>
-    <t>gdl_lifexp</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>gdl_shdi</t>
-  </si>
-  <si>
     <t>Performance Indicators</t>
   </si>
   <si>
-    <t>tva_per_mae_per_day_ppp</t>
-  </si>
-  <si>
-    <t>combined_fs_score</t>
-  </si>
-  <si>
     <t>ordinal</t>
   </si>
   <si>
-    <t>Potential clustering within projects</t>
-  </si>
-  <si>
-    <t>Potential clustering within counties</t>
-  </si>
-  <si>
-    <t>Potential Clustering within counties</t>
-  </si>
-  <si>
-    <t>Potential Clustering within Villages</t>
-  </si>
-  <si>
     <t>The education level of the household</t>
   </si>
   <si>
-    <t>The number of livestock held by the household (tropical livestock units)</t>
-  </si>
-  <si>
-    <t>Rescaling</t>
-  </si>
-  <si>
-    <t>Amount of land cultivated</t>
-  </si>
-  <si>
-    <t>Proportion of household value from livestock</t>
-  </si>
-  <si>
-    <t>Proportion of household value from crops</t>
-  </si>
-  <si>
-    <t>Proportion of household value from off-farm sources of income</t>
-  </si>
-  <si>
-    <t>Proportion of household value from the sale of farm produce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversity of income sources, weighted by spread of income across sources </t>
-  </si>
-  <si>
     <t>Length of growing season</t>
   </si>
   <si>
     <t>Minimum travel time to town of at least 5,000 people</t>
   </si>
   <si>
-    <t>Area classification based on climate</t>
-  </si>
-  <si>
-    <t>County level live expectancy</t>
-  </si>
-  <si>
-    <t>Ordinal food security ranking</t>
-  </si>
-  <si>
-    <t>ID for form implementing survey</t>
-  </si>
-  <si>
-    <t>Two letter code representing country where survey took place</t>
-  </si>
-  <si>
     <t>Village</t>
   </si>
   <si>
     <t>Household</t>
   </si>
   <si>
-    <t>Unique ID for subcounty where surveys took place</t>
-  </si>
-  <si>
-    <t>Village where survey took place</t>
-  </si>
-  <si>
-    <t>The number of household memebers in units of Male Adult Equivalient (MAE). MAE is an adjustment for calorific requirements of household members</t>
-  </si>
-  <si>
-    <t>Higher education levels are often associated with higher incomes/productivity</t>
-  </si>
-  <si>
-    <t>Reason/Hypothesis</t>
-  </si>
-  <si>
-    <t>Popular descriptor of farms. Common in systematic review. Larger households could have greater available of labour, but also increased number of dependents.</t>
-  </si>
-  <si>
-    <t>Livestock is an income generating asset</t>
-  </si>
-  <si>
-    <t>Land is an income generating asset</t>
-  </si>
-  <si>
-    <t>More livestock oriented farmers could generate more income</t>
-  </si>
-  <si>
-    <t>Households with more off-farm income</t>
-  </si>
-  <si>
-    <t>Farmers which sell more of their produce could have a higher value of activities</t>
-  </si>
-  <si>
-    <t>Households with diverse incomes could be more resilient</t>
-  </si>
-  <si>
-    <t>Longer growing seasons can be linked with more productivity</t>
-  </si>
-  <si>
-    <t>Lower travel time to villages could improve access to inputs and markets</t>
-  </si>
-  <si>
-    <t>Agro-Ecological zone is common indicator of suitable farm type</t>
-  </si>
-  <si>
-    <t>Wealthier locations often have higher life expectancy</t>
-  </si>
-  <si>
     <t>A composite indicator combining life expectancy, access to education, and income</t>
   </si>
   <si>
@@ -262,20 +97,170 @@
     <t>log</t>
   </si>
   <si>
-    <t>z-score normalisation</t>
-  </si>
-  <si>
     <t>logit</t>
   </si>
   <si>
-    <t>A composite indicator combining access to education, local level income, and life expectancy</t>
+    <t>Sub-Category</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Where You are</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>The country where the survey took place</t>
+  </si>
+  <si>
+    <t>RHoMIS</t>
+  </si>
+  <si>
+    <t>The village where survey took place</t>
+  </si>
+  <si>
+    <t>Growing Period</t>
+  </si>
+  <si>
+    <t>GAEZv4</t>
+  </si>
+  <si>
+    <t>Travel Time to Town</t>
+  </si>
+  <si>
+    <t>Nelson et al (2019)</t>
+  </si>
+  <si>
+    <t>Country Descriptors</t>
+  </si>
+  <si>
+    <t>Human Development Index</t>
+  </si>
+  <si>
+    <t>Global Data Lab</t>
+  </si>
+  <si>
+    <t>What You Have</t>
+  </si>
+  <si>
+    <t>Household Size</t>
+  </si>
+  <si>
+    <t>The number of people in a household according to calorific requirements (MAE)</t>
+  </si>
+  <si>
+    <t>Education Level</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Sources of External Labour</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Whether the household has hired labour, or labour from other households (1). If the household has no extra labour (0)</t>
+  </si>
+  <si>
+    <t>Tillage by Hand vs Assisted</t>
+  </si>
+  <si>
+    <t>Whether the household tills the fields by machine or animal (1). If the household tills by hand (0)</t>
+  </si>
+  <si>
+    <t>Total Livestock Owned</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Total Land Cultivated</t>
+  </si>
+  <si>
+    <t>Amount of land cultivated in hectares</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Has Debts</t>
+  </si>
+  <si>
+    <t>Whether a household has any debts (yes=1, no=0)</t>
+  </si>
+  <si>
+    <t>What You Do</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Use of Livestock Inputs</t>
+  </si>
+  <si>
+    <t>Whether a household uses any livestock inputs (yes=1, no=0)</t>
+  </si>
+  <si>
+    <t>Use of Fertiliser</t>
+  </si>
+  <si>
+    <t>Whether a household uses fertiliser (yes=1, no=0)</t>
+  </si>
+  <si>
+    <t>Land Irrigation</t>
+  </si>
+  <si>
+    <t>Whether a household irrigates any of their land (yes=1, no=0)</t>
+  </si>
+  <si>
+    <t>Off Farm Sources of Income</t>
+  </si>
+  <si>
+    <t>Whether a household has any off-farm sources of income (yes=1, no=0)</t>
+  </si>
+  <si>
+    <t>Number of Sources of Income</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>The number of crop and livestock products sold, in addition to the number of off-farm sources of income</t>
+  </si>
+  <si>
+    <t>Kitchen Garden</t>
+  </si>
+  <si>
+    <t>Whether the household has a kitchen garden</t>
+  </si>
+  <si>
+    <t>Market Orientation</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>The proportion of a households "value" which comes from produce which is sold (yes=1, no=0)</t>
+  </si>
+  <si>
+    <t>Total Value of Activities</t>
+  </si>
+  <si>
+    <t>Dietary Diversity</t>
+  </si>
+  <si>
+    <t>Score out of 10 for food groups  consumed regularly in the lean season. Where there was no lean season, food consumption from the previous month was considered.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,14 +396,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Bell MT"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Bell MT"/>
       <family val="1"/>
@@ -605,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -723,9 +701,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,69 +731,54 @@
       <left/>
       <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -803,32 +786,10 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thick">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -876,104 +837,48 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1329,550 +1234,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B3:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="65" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="61.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="25" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="25" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="51" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="13" t="s">
+      <c r="I29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="51" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="51" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="J29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F26" s="30"/>
-    </row>
+    </row>
+    <row r="30" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="18">
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C28:D29"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:B20"/>
